--- a/biology/Zoologie/Indicator/Indicator.xlsx
+++ b/biology/Zoologie/Indicator/Indicator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Indicateur
 Indicator est un genre d'oiseaux de la famille des Indicatoridés (ordre des Piciformes), qui regroupe onze espèces de l'écozone afrotropicale. Le nom fait référence au comportement de certaines espèces, notamment le Grand Indicateur, qui guident les humains vers les colonies d'abeilles afin de profiter de la cire et du couvain laissés sur place une fois le nid dépecé.
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 2.2, 2009) du Congrès ornithologique international (ordre phylogénique) :
 Indicator pumilio – Indicateur nain
